--- a/examples/sources/data/unsolved/to_schedule/2018-12-03.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-03.xlsx
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -4283,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" s="2">
         <v>43437</v>
@@ -4324,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" s="2">
         <v>43437</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -4488,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" s="2">
         <v>43437</v>
